--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3704127.789921792</v>
+        <v>3701728.397073234</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>564162.8405048636</v>
+        <v>564162.8405048648</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>219.8847370585789</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
         <v>318.297755152415</v>
@@ -1376,7 +1376,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
@@ -1385,7 +1385,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>247.5584345454749</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1546,7 +1546,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1607,22 +1607,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>297.187897212328</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>49.55526944359693</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1667,10 +1667,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>313.5440632291201</v>
+        <v>313.54406322912</v>
       </c>
       <c r="C17" t="n">
-        <v>296.083113336647</v>
+        <v>296.0831133366469</v>
       </c>
       <c r="D17" t="n">
-        <v>285.4932631863225</v>
+        <v>285.4932631863223</v>
       </c>
       <c r="E17" t="n">
-        <v>312.7405916379013</v>
+        <v>312.7405916379012</v>
       </c>
       <c r="F17" t="n">
-        <v>337.6862673073509</v>
+        <v>337.6862673073508</v>
       </c>
       <c r="G17" t="n">
-        <v>341.7319472190929</v>
+        <v>341.7319472190928</v>
       </c>
       <c r="H17" t="n">
-        <v>225.41798595296</v>
+        <v>225.4179859529598</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.99798335381534</v>
+        <v>39.9979833538152</v>
       </c>
       <c r="T17" t="n">
-        <v>134.7281917052596</v>
+        <v>134.7281917052595</v>
       </c>
       <c r="U17" t="n">
-        <v>181.8053935245415</v>
+        <v>181.8053935245413</v>
       </c>
       <c r="V17" t="n">
-        <v>258.5624800357744</v>
+        <v>258.5624800357742</v>
       </c>
       <c r="W17" t="n">
-        <v>280.0511902830525</v>
+        <v>280.0511902830524</v>
       </c>
       <c r="X17" t="n">
-        <v>300.5413222441085</v>
+        <v>300.5413222441084</v>
       </c>
       <c r="Y17" t="n">
-        <v>317.0481602216931</v>
+        <v>317.0481602216929</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.6422017475768</v>
+        <v>110.6422017475766</v>
       </c>
       <c r="C19" t="n">
-        <v>98.05704266426734</v>
+        <v>98.05704266426719</v>
       </c>
       <c r="D19" t="n">
-        <v>79.42569458385186</v>
+        <v>79.42569458385171</v>
       </c>
       <c r="E19" t="n">
-        <v>77.24418421220868</v>
+        <v>77.24418421220852</v>
       </c>
       <c r="F19" t="n">
-        <v>76.23126958857075</v>
+        <v>76.2312695885706</v>
       </c>
       <c r="G19" t="n">
-        <v>96.83602982466773</v>
+        <v>96.83602982466758</v>
       </c>
       <c r="H19" t="n">
-        <v>75.56523647996029</v>
+        <v>75.56523647996013</v>
       </c>
       <c r="I19" t="n">
-        <v>27.16264197547761</v>
+        <v>27.16264197547746</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.74237423568684</v>
+        <v>19.7423742356867</v>
       </c>
       <c r="S19" t="n">
-        <v>120.5792468970814</v>
+        <v>120.5792468970812</v>
       </c>
       <c r="T19" t="n">
-        <v>150.3591708418087</v>
+        <v>150.3591708418085</v>
       </c>
       <c r="U19" t="n">
-        <v>217.0220597712523</v>
+        <v>217.0220597712522</v>
       </c>
       <c r="V19" t="n">
-        <v>182.9478648894675</v>
+        <v>182.9478648894674</v>
       </c>
       <c r="W19" t="n">
-        <v>217.3332199022305</v>
+        <v>217.3332199022304</v>
       </c>
       <c r="X19" t="n">
-        <v>156.5198769546766</v>
+        <v>156.5198769546765</v>
       </c>
       <c r="Y19" t="n">
-        <v>149.3948749177343</v>
+        <v>149.3948749177341</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>313.5440632291201</v>
+        <v>313.54406322912</v>
       </c>
       <c r="C20" t="n">
-        <v>296.083113336647</v>
+        <v>296.0831133366469</v>
       </c>
       <c r="D20" t="n">
-        <v>285.4932631863225</v>
+        <v>285.4932631863223</v>
       </c>
       <c r="E20" t="n">
-        <v>312.7405916379013</v>
+        <v>312.7405916379012</v>
       </c>
       <c r="F20" t="n">
-        <v>337.6862673073509</v>
+        <v>337.6862673073508</v>
       </c>
       <c r="G20" t="n">
-        <v>341.7319472190929</v>
+        <v>341.7319472190928</v>
       </c>
       <c r="H20" t="n">
-        <v>225.41798595296</v>
+        <v>225.4179859529598</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>39.99798335381534</v>
+        <v>39.99798335381519</v>
       </c>
       <c r="T20" t="n">
-        <v>134.7281917052596</v>
+        <v>134.7281917052595</v>
       </c>
       <c r="U20" t="n">
-        <v>181.8053935245415</v>
+        <v>181.8053935245413</v>
       </c>
       <c r="V20" t="n">
-        <v>258.5624800357744</v>
+        <v>258.5624800357742</v>
       </c>
       <c r="W20" t="n">
-        <v>280.0511902830525</v>
+        <v>280.0511902830524</v>
       </c>
       <c r="X20" t="n">
-        <v>300.5413222441085</v>
+        <v>300.5413222441084</v>
       </c>
       <c r="Y20" t="n">
-        <v>317.0481602216931</v>
+        <v>317.0481602216929</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.6422017475768</v>
+        <v>110.6422017475766</v>
       </c>
       <c r="C22" t="n">
-        <v>98.05704266426734</v>
+        <v>98.05704266426719</v>
       </c>
       <c r="D22" t="n">
-        <v>79.42569458385186</v>
+        <v>79.42569458385171</v>
       </c>
       <c r="E22" t="n">
-        <v>77.24418421220868</v>
+        <v>77.24418421220852</v>
       </c>
       <c r="F22" t="n">
-        <v>76.23126958857075</v>
+        <v>76.2312695885706</v>
       </c>
       <c r="G22" t="n">
-        <v>96.83602982466773</v>
+        <v>96.83602982466758</v>
       </c>
       <c r="H22" t="n">
-        <v>75.56523647996029</v>
+        <v>75.56523647996013</v>
       </c>
       <c r="I22" t="n">
-        <v>27.16264197547761</v>
+        <v>27.16264197547745</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.74237423568684</v>
+        <v>19.74237423568668</v>
       </c>
       <c r="S22" t="n">
-        <v>120.5792468970814</v>
+        <v>120.5792468970812</v>
       </c>
       <c r="T22" t="n">
-        <v>150.3591708418087</v>
+        <v>150.3591708418085</v>
       </c>
       <c r="U22" t="n">
-        <v>217.0220597712523</v>
+        <v>217.0220597712522</v>
       </c>
       <c r="V22" t="n">
-        <v>182.9478648894675</v>
+        <v>182.9478648894674</v>
       </c>
       <c r="W22" t="n">
-        <v>217.3332199022305</v>
+        <v>217.3332199022304</v>
       </c>
       <c r="X22" t="n">
-        <v>156.5198769546766</v>
+        <v>156.5198769546765</v>
       </c>
       <c r="Y22" t="n">
-        <v>149.3948749177343</v>
+        <v>149.3948749177341</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>313.5440632291201</v>
+        <v>313.54406322912</v>
       </c>
       <c r="C23" t="n">
-        <v>296.083113336647</v>
+        <v>296.0831133366469</v>
       </c>
       <c r="D23" t="n">
-        <v>285.4932631863225</v>
+        <v>285.4932631863223</v>
       </c>
       <c r="E23" t="n">
-        <v>312.7405916379013</v>
+        <v>312.7405916379012</v>
       </c>
       <c r="F23" t="n">
-        <v>337.6862673073509</v>
+        <v>337.6862673073508</v>
       </c>
       <c r="G23" t="n">
-        <v>341.7319472190929</v>
+        <v>341.7319472190928</v>
       </c>
       <c r="H23" t="n">
-        <v>225.41798595296</v>
+        <v>225.4179859529599</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.99798335381536</v>
+        <v>39.9979833538152</v>
       </c>
       <c r="T23" t="n">
-        <v>134.7281917052596</v>
+        <v>134.7281917052595</v>
       </c>
       <c r="U23" t="n">
-        <v>181.8053935245415</v>
+        <v>181.8053935245413</v>
       </c>
       <c r="V23" t="n">
-        <v>258.5624800357744</v>
+        <v>258.5624800357742</v>
       </c>
       <c r="W23" t="n">
-        <v>280.0511902830525</v>
+        <v>280.0511902830524</v>
       </c>
       <c r="X23" t="n">
-        <v>300.5413222441085</v>
+        <v>300.5413222441084</v>
       </c>
       <c r="Y23" t="n">
-        <v>317.0481602216931</v>
+        <v>317.0481602216929</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.6422017475768</v>
+        <v>110.6422017475766</v>
       </c>
       <c r="C25" t="n">
-        <v>98.05704266426734</v>
+        <v>98.05704266426719</v>
       </c>
       <c r="D25" t="n">
-        <v>79.42569458385186</v>
+        <v>79.42569458385171</v>
       </c>
       <c r="E25" t="n">
-        <v>77.24418421220868</v>
+        <v>77.24418421220852</v>
       </c>
       <c r="F25" t="n">
-        <v>76.23126958857075</v>
+        <v>76.2312695885706</v>
       </c>
       <c r="G25" t="n">
-        <v>96.83602982466773</v>
+        <v>96.83602982466758</v>
       </c>
       <c r="H25" t="n">
-        <v>75.56523647996029</v>
+        <v>75.56523647996013</v>
       </c>
       <c r="I25" t="n">
-        <v>27.16264197547761</v>
+        <v>27.16264197547746</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.74237423568684</v>
+        <v>19.7423742356867</v>
       </c>
       <c r="S25" t="n">
-        <v>120.5792468970814</v>
+        <v>120.5792468970812</v>
       </c>
       <c r="T25" t="n">
-        <v>150.3591708418087</v>
+        <v>150.3591708418085</v>
       </c>
       <c r="U25" t="n">
-        <v>217.0220597712523</v>
+        <v>217.0220597712522</v>
       </c>
       <c r="V25" t="n">
-        <v>182.9478648894675</v>
+        <v>182.9478648894674</v>
       </c>
       <c r="W25" t="n">
-        <v>217.3332199022305</v>
+        <v>217.3332199022304</v>
       </c>
       <c r="X25" t="n">
-        <v>156.5198769546766</v>
+        <v>156.5198769546765</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.3948749177343</v>
+        <v>149.3948749177341</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2555,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958321</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797653</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043386</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404365</v>
+        <v>119.0506716404371</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572814</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124547</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514547</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2767,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2776,10 +2776,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448881</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958321</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.2628020374611</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797653</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140434021</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572814</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124468</v>
+        <v>49.37728379124547</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145483</v>
+        <v>41.9570160514547</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>310.9982102420634</v>
+        <v>310.9982102420635</v>
       </c>
       <c r="C35" t="n">
         <v>293.5372603495904</v>
@@ -3272,7 +3272,7 @@
         <v>282.9474101992658</v>
       </c>
       <c r="E35" t="n">
-        <v>310.1947386508446</v>
+        <v>310.1947386508447</v>
       </c>
       <c r="F35" t="n">
         <v>335.1404143202943</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.45213036675869</v>
+        <v>37.45213036675871</v>
       </c>
       <c r="T35" t="n">
         <v>132.182338718203</v>
@@ -3326,7 +3326,7 @@
         <v>256.0166270487177</v>
       </c>
       <c r="W35" t="n">
-        <v>277.5053372959958</v>
+        <v>277.5053372959959</v>
       </c>
       <c r="X35" t="n">
         <v>297.9954692570519</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>108.0963487605201</v>
+        <v>108.0963487605202</v>
       </c>
       <c r="C37" t="n">
-        <v>95.51118967721068</v>
+        <v>95.51118967721069</v>
       </c>
       <c r="D37" t="n">
-        <v>76.8798415967952</v>
+        <v>76.87984159679522</v>
       </c>
       <c r="E37" t="n">
-        <v>74.69833122515202</v>
+        <v>74.69833122515203</v>
       </c>
       <c r="F37" t="n">
-        <v>73.68541660151409</v>
+        <v>73.68541660151411</v>
       </c>
       <c r="G37" t="n">
-        <v>94.29017683761107</v>
+        <v>94.29017683761109</v>
       </c>
       <c r="H37" t="n">
-        <v>73.01938349290363</v>
+        <v>73.01938349290364</v>
       </c>
       <c r="I37" t="n">
-        <v>24.61678898842094</v>
+        <v>24.61678898842097</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.19652124863018</v>
+        <v>17.19652124863021</v>
       </c>
       <c r="S37" t="n">
-        <v>118.0333939100247</v>
+        <v>118.0333939100248</v>
       </c>
       <c r="T37" t="n">
-        <v>147.813317854752</v>
+        <v>147.8133178547521</v>
       </c>
       <c r="U37" t="n">
         <v>214.4762067841957</v>
       </c>
       <c r="V37" t="n">
-        <v>208.2472775485442</v>
+        <v>180.4020119024109</v>
       </c>
       <c r="W37" t="n">
-        <v>214.7873669151738</v>
+        <v>214.7873669151739</v>
       </c>
       <c r="X37" t="n">
         <v>153.97402396762</v>
       </c>
       <c r="Y37" t="n">
-        <v>146.8490219306776</v>
+        <v>174.6942875768098</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>310.9982102420634</v>
+        <v>310.9982102420635</v>
       </c>
       <c r="C38" t="n">
         <v>293.5372603495904</v>
@@ -3509,7 +3509,7 @@
         <v>282.9474101992658</v>
       </c>
       <c r="E38" t="n">
-        <v>310.1947386508446</v>
+        <v>310.1947386508447</v>
       </c>
       <c r="F38" t="n">
         <v>335.1404143202943</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>37.45213036675868</v>
+        <v>37.45213036675871</v>
       </c>
       <c r="T38" t="n">
         <v>132.182338718203</v>
@@ -3563,7 +3563,7 @@
         <v>256.0166270487177</v>
       </c>
       <c r="W38" t="n">
-        <v>277.5053372959958</v>
+        <v>277.5053372959959</v>
       </c>
       <c r="X38" t="n">
         <v>297.9954692570519</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247689</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>108.0963487605201</v>
+        <v>108.0963487605202</v>
       </c>
       <c r="C40" t="n">
-        <v>95.51118967721068</v>
+        <v>95.51118967721069</v>
       </c>
       <c r="D40" t="n">
-        <v>76.8798415967952</v>
+        <v>76.87984159679522</v>
       </c>
       <c r="E40" t="n">
-        <v>74.69833122515202</v>
+        <v>74.69833122515203</v>
       </c>
       <c r="F40" t="n">
-        <v>73.68541660151409</v>
+        <v>73.68541660151411</v>
       </c>
       <c r="G40" t="n">
-        <v>94.29017683761107</v>
+        <v>94.29017683761109</v>
       </c>
       <c r="H40" t="n">
-        <v>73.01938349290363</v>
+        <v>73.01938349290364</v>
       </c>
       <c r="I40" t="n">
-        <v>24.61678898842094</v>
+        <v>24.61678898842097</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>17.19652124863018</v>
+        <v>17.19652124863021</v>
       </c>
       <c r="S40" t="n">
-        <v>118.0333939100247</v>
+        <v>118.0333939100248</v>
       </c>
       <c r="T40" t="n">
-        <v>147.813317854752</v>
+        <v>147.8133178547521</v>
       </c>
       <c r="U40" t="n">
         <v>214.4762067841957</v>
       </c>
       <c r="V40" t="n">
-        <v>208.2472775485442</v>
+        <v>208.2472775485431</v>
       </c>
       <c r="W40" t="n">
-        <v>214.7873669151738</v>
+        <v>214.7873669151739</v>
       </c>
       <c r="X40" t="n">
         <v>153.97402396762</v>
       </c>
       <c r="Y40" t="n">
-        <v>146.8490219306776</v>
+        <v>146.8490219306777</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E41" t="n">
-        <v>48.19655695141635</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>232.5545998123424</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3983,16 +3983,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>232.5545998123423</v>
       </c>
       <c r="G44" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>241.6510731180171</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4138,7 +4138,7 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996203</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
         <v>99.45882602797661</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2019.207476131792</v>
+        <v>1680.793913831871</v>
       </c>
       <c r="C11" t="n">
-        <v>1697.694592139454</v>
+        <v>1359.281029839532</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.878526480777</v>
+        <v>1048.464964180855</v>
       </c>
       <c r="E11" t="n">
-        <v>1048.539906830606</v>
+        <v>1048.464964180855</v>
       </c>
       <c r="F11" t="n">
-        <v>685.0036349890715</v>
+        <v>684.9286923393211</v>
       </c>
       <c r="G11" t="n">
-        <v>317.3808177821414</v>
+        <v>317.3058751323908</v>
       </c>
       <c r="H11" t="n">
-        <v>67.24685033898186</v>
+        <v>67.24685033898182</v>
       </c>
       <c r="I11" t="n">
-        <v>67.24685033898186</v>
+        <v>67.24685033898182</v>
       </c>
       <c r="J11" t="n">
-        <v>256.1259812980073</v>
+        <v>292.1279427311296</v>
       </c>
       <c r="K11" t="n">
-        <v>589.9453549878538</v>
+        <v>625.947316420976</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.979568236263</v>
+        <v>1076.981529669385</v>
       </c>
       <c r="M11" t="n">
-        <v>1574.511472908187</v>
+        <v>1610.513434341309</v>
       </c>
       <c r="N11" t="n">
-        <v>2121.290289966969</v>
+        <v>2157.292251400091</v>
       </c>
       <c r="O11" t="n">
-        <v>2624.262760846306</v>
+        <v>2660.264722279428</v>
       </c>
       <c r="P11" t="n">
-        <v>3055.039088636608</v>
+        <v>3055.039088636606</v>
       </c>
       <c r="Q11" t="n">
-        <v>3303.32545039229</v>
+        <v>3303.325450392288</v>
       </c>
       <c r="R11" t="n">
-        <v>3362.342516949093</v>
+        <v>3362.342516949091</v>
       </c>
       <c r="S11" t="n">
-        <v>3362.342516949093</v>
+        <v>3299.501481424259</v>
       </c>
       <c r="T11" t="n">
-        <v>3362.342516949093</v>
+        <v>3140.973366756554</v>
       </c>
       <c r="U11" t="n">
-        <v>3156.261673171003</v>
+        <v>2934.892522978464</v>
       </c>
       <c r="V11" t="n">
-        <v>2872.648418775505</v>
+        <v>2651.279268582967</v>
       </c>
       <c r="W11" t="n">
-        <v>2567.329396453465</v>
+        <v>2345.960246260926</v>
       </c>
       <c r="X11" t="n">
-        <v>2241.313271140458</v>
+        <v>2019.944120947919</v>
       </c>
       <c r="Y11" t="n">
-        <v>2241.313271140458</v>
+        <v>2019.944120947919</v>
       </c>
     </row>
     <row r="12">
@@ -5112,22 +5112,22 @@
         <v>176.7560362995764</v>
       </c>
       <c r="H12" t="n">
-        <v>86.2541419374439</v>
+        <v>86.25414193744388</v>
       </c>
       <c r="I12" t="n">
-        <v>67.24685033898186</v>
+        <v>67.24685033898182</v>
       </c>
       <c r="J12" t="n">
-        <v>160.9241198295989</v>
+        <v>160.9241198295991</v>
       </c>
       <c r="K12" t="n">
-        <v>399.188318809946</v>
+        <v>399.1883188099462</v>
       </c>
       <c r="L12" t="n">
-        <v>765.8864791226114</v>
+        <v>765.8864791226115</v>
       </c>
       <c r="M12" t="n">
-        <v>1213.162804344927</v>
+        <v>1213.162804344928</v>
       </c>
       <c r="N12" t="n">
         <v>1686.685847899382</v>
@@ -5173,58 +5173,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760.2009837120929</v>
+        <v>760.2009837120927</v>
       </c>
       <c r="C13" t="n">
-        <v>638.7144337322593</v>
+        <v>638.7144337322591</v>
       </c>
       <c r="D13" t="n">
-        <v>536.0474272679969</v>
+        <v>536.0474272679967</v>
       </c>
       <c r="E13" t="n">
-        <v>435.5839666336771</v>
+        <v>435.5839666336769</v>
       </c>
       <c r="F13" t="n">
-        <v>336.14365208384</v>
+        <v>336.1436520838395</v>
       </c>
       <c r="G13" t="n">
-        <v>215.8904484066322</v>
+        <v>215.8904484066318</v>
       </c>
       <c r="H13" t="n">
-        <v>117.1228945725632</v>
+        <v>117.1228945725629</v>
       </c>
       <c r="I13" t="n">
-        <v>67.24685033898186</v>
+        <v>67.24685033898182</v>
       </c>
       <c r="J13" t="n">
-        <v>158.8748680383242</v>
+        <v>158.8748680383239</v>
       </c>
       <c r="K13" t="n">
-        <v>409.3674362396071</v>
+        <v>409.3674362396068</v>
       </c>
       <c r="L13" t="n">
-        <v>772.4326199405099</v>
+        <v>772.4326199405095</v>
       </c>
       <c r="M13" t="n">
         <v>1163.095050792465</v>
       </c>
       <c r="N13" t="n">
-        <v>1551.008812750737</v>
+        <v>1551.008812750736</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.843796923556</v>
+        <v>1896.843796923557</v>
       </c>
       <c r="P13" t="n">
         <v>2175.956682609622</v>
       </c>
       <c r="Q13" t="n">
-        <v>2300.072364014543</v>
+        <v>2300.072364014544</v>
       </c>
       <c r="R13" t="n">
         <v>2257.691539720145</v>
       </c>
       <c r="S13" t="n">
-        <v>2113.455288495044</v>
+        <v>2113.455288495045</v>
       </c>
       <c r="T13" t="n">
         <v>1939.138306012644</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1338.104214804136</v>
+        <v>1338.104214804133</v>
       </c>
       <c r="C14" t="n">
-        <v>1016.591330811798</v>
+        <v>1016.591330811794</v>
       </c>
       <c r="D14" t="n">
-        <v>705.7752651531205</v>
+        <v>705.7752651531173</v>
       </c>
       <c r="E14" t="n">
-        <v>367.4366455029496</v>
+        <v>367.4366455029464</v>
       </c>
       <c r="F14" t="n">
-        <v>67.24685033898189</v>
+        <v>367.4366455029464</v>
       </c>
       <c r="G14" t="n">
-        <v>67.24685033898189</v>
+        <v>317.3808177821414</v>
       </c>
       <c r="H14" t="n">
-        <v>67.24685033898189</v>
+        <v>67.24685033898183</v>
       </c>
       <c r="I14" t="n">
-        <v>67.24685033898189</v>
+        <v>67.24685033898183</v>
       </c>
       <c r="J14" t="n">
-        <v>256.1259812980073</v>
+        <v>256.1259812980072</v>
       </c>
       <c r="K14" t="n">
-        <v>589.9453549878538</v>
+        <v>589.9453549878535</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.979568236263</v>
+        <v>1040.979568236262</v>
       </c>
       <c r="M14" t="n">
-        <v>1574.511472908187</v>
+        <v>1610.513434341309</v>
       </c>
       <c r="N14" t="n">
-        <v>2121.290289966969</v>
+        <v>2157.292251400092</v>
       </c>
       <c r="O14" t="n">
-        <v>2624.262760846306</v>
+        <v>2660.264722279428</v>
       </c>
       <c r="P14" t="n">
-        <v>3055.039088636609</v>
+        <v>3055.039088636606</v>
       </c>
       <c r="Q14" t="n">
-        <v>3303.325450392292</v>
+        <v>3303.325450392289</v>
       </c>
       <c r="R14" t="n">
-        <v>3362.342516949094</v>
+        <v>3362.342516949091</v>
       </c>
       <c r="S14" t="n">
-        <v>3299.501481424263</v>
+        <v>3299.50148142426</v>
       </c>
       <c r="T14" t="n">
-        <v>3140.973366756558</v>
+        <v>3140.973366756555</v>
       </c>
       <c r="U14" t="n">
-        <v>2934.892522978468</v>
+        <v>2934.892522978465</v>
       </c>
       <c r="V14" t="n">
-        <v>2651.27926858297</v>
+        <v>2651.279268582967</v>
       </c>
       <c r="W14" t="n">
-        <v>2345.96024626093</v>
+        <v>2345.960246260926</v>
       </c>
       <c r="X14" t="n">
-        <v>2019.944120947923</v>
+        <v>2019.94412094792</v>
       </c>
       <c r="Y14" t="n">
-        <v>1677.254421920185</v>
+        <v>1677.254421920181</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>176.7560362995764</v>
       </c>
       <c r="H15" t="n">
-        <v>86.25414193744393</v>
+        <v>86.2541419374439</v>
       </c>
       <c r="I15" t="n">
-        <v>67.24685033898189</v>
+        <v>67.24685033898183</v>
       </c>
       <c r="J15" t="n">
-        <v>160.9241198295992</v>
+        <v>160.9241198295991</v>
       </c>
       <c r="K15" t="n">
-        <v>399.188318809946</v>
+        <v>399.1883188099462</v>
       </c>
       <c r="L15" t="n">
-        <v>765.8864791226114</v>
+        <v>765.8864791226117</v>
       </c>
       <c r="M15" t="n">
-        <v>1213.162804344927</v>
+        <v>1213.162804344928</v>
       </c>
       <c r="N15" t="n">
         <v>1686.685847899382</v>
@@ -5422,46 +5422,46 @@
         <v>435.5839666336768</v>
       </c>
       <c r="F16" t="n">
-        <v>336.1436520838398</v>
+        <v>336.1436520838397</v>
       </c>
       <c r="G16" t="n">
-        <v>215.8904484066321</v>
+        <v>215.890448406632</v>
       </c>
       <c r="H16" t="n">
         <v>117.1228945725632</v>
       </c>
       <c r="I16" t="n">
-        <v>67.24685033898189</v>
+        <v>67.24685033898183</v>
       </c>
       <c r="J16" t="n">
-        <v>158.8748680383241</v>
+        <v>158.8748680383242</v>
       </c>
       <c r="K16" t="n">
-        <v>409.3674362396072</v>
+        <v>409.3674362396071</v>
       </c>
       <c r="L16" t="n">
-        <v>772.43261994051</v>
+        <v>772.4326199405095</v>
       </c>
       <c r="M16" t="n">
-        <v>1163.095050792466</v>
+        <v>1163.095050792465</v>
       </c>
       <c r="N16" t="n">
-        <v>1551.008812750736</v>
+        <v>1551.008812750737</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.843796923556</v>
+        <v>1896.843796923557</v>
       </c>
       <c r="P16" t="n">
         <v>2175.956682609622</v>
       </c>
       <c r="Q16" t="n">
-        <v>2300.072364014543</v>
+        <v>2300.072364014544</v>
       </c>
       <c r="R16" t="n">
-        <v>2257.691539720145</v>
+        <v>2257.691539720146</v>
       </c>
       <c r="S16" t="n">
-        <v>2113.455288495044</v>
+        <v>2113.455288495045</v>
       </c>
       <c r="T16" t="n">
         <v>1939.138306012644</v>
@@ -5479,7 +5479,7 @@
         <v>1067.742761789716</v>
       </c>
       <c r="Y16" t="n">
-        <v>894.3998155942589</v>
+        <v>894.3998155942591</v>
       </c>
     </row>
     <row r="17">
@@ -5498,49 +5498,49 @@
         <v>1304.611312450744</v>
       </c>
       <c r="E17" t="n">
-        <v>988.7117249377122</v>
+        <v>988.7117249377125</v>
       </c>
       <c r="F17" t="n">
-        <v>647.6144852333173</v>
+        <v>647.6144852333179</v>
       </c>
       <c r="G17" t="n">
-        <v>302.4307001635267</v>
+        <v>302.4307001635265</v>
       </c>
       <c r="H17" t="n">
-        <v>74.7357648575065</v>
+        <v>74.73576485750647</v>
       </c>
       <c r="I17" t="n">
-        <v>74.7357648575065</v>
+        <v>74.73576485750647</v>
       </c>
       <c r="J17" t="n">
         <v>263.6148958165319</v>
       </c>
       <c r="K17" t="n">
-        <v>918.3382279518314</v>
+        <v>597.4342695063783</v>
       </c>
       <c r="L17" t="n">
-        <v>1369.37244120024</v>
+        <v>1048.468482754787</v>
       </c>
       <c r="M17" t="n">
-        <v>1902.904345872165</v>
+        <v>1582.000387426711</v>
       </c>
       <c r="N17" t="n">
-        <v>2449.683162930947</v>
+        <v>2128.779204485493</v>
       </c>
       <c r="O17" t="n">
-        <v>2952.655633810284</v>
+        <v>2631.75167536483</v>
       </c>
       <c r="P17" t="n">
-        <v>3347.430000167462</v>
+        <v>3154.23371813528</v>
       </c>
       <c r="Q17" t="n">
-        <v>3612.711920644269</v>
+        <v>3612.711920644268</v>
       </c>
       <c r="R17" t="n">
-        <v>3736.788242875325</v>
+        <v>3736.788242875323</v>
       </c>
       <c r="S17" t="n">
-        <v>3696.386239487632</v>
+        <v>3696.386239487631</v>
       </c>
       <c r="T17" t="n">
         <v>3560.297156957066</v>
@@ -5552,7 +5552,7 @@
         <v>3115.481123057757</v>
       </c>
       <c r="W17" t="n">
-        <v>2832.601132872856</v>
+        <v>2832.601132872855</v>
       </c>
       <c r="X17" t="n">
         <v>2529.024039696988</v>
@@ -5589,31 +5589,31 @@
         <v>93.74305645596854</v>
       </c>
       <c r="I18" t="n">
-        <v>74.7357648575065</v>
+        <v>74.73576485750647</v>
       </c>
       <c r="J18" t="n">
-        <v>168.4130343481238</v>
+        <v>168.4130343481246</v>
       </c>
       <c r="K18" t="n">
-        <v>406.6772333284709</v>
+        <v>406.6772333284717</v>
       </c>
       <c r="L18" t="n">
-        <v>773.3753936411363</v>
+        <v>773.375393641137</v>
       </c>
       <c r="M18" t="n">
-        <v>1220.651718863452</v>
+        <v>1220.651718863453</v>
       </c>
       <c r="N18" t="n">
         <v>1694.174762417907</v>
       </c>
       <c r="O18" t="n">
-        <v>2105.136041835961</v>
+        <v>2105.136041835962</v>
       </c>
       <c r="P18" t="n">
-        <v>2415.635633312064</v>
+        <v>2415.635633312065</v>
       </c>
       <c r="Q18" t="n">
-        <v>2573.277190958664</v>
+        <v>2573.277190958665</v>
       </c>
       <c r="R18" t="n">
         <v>2573.13283755118</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>610.6166732706422</v>
+        <v>610.6166732706411</v>
       </c>
       <c r="C19" t="n">
-        <v>511.5691554279479</v>
+        <v>511.5691554279469</v>
       </c>
       <c r="D19" t="n">
-        <v>431.3411811008248</v>
+        <v>431.341181100824</v>
       </c>
       <c r="E19" t="n">
-        <v>353.3167526036443</v>
+        <v>353.3167526036436</v>
       </c>
       <c r="F19" t="n">
-        <v>276.3154701909465</v>
+        <v>276.3154701909461</v>
       </c>
       <c r="G19" t="n">
-        <v>178.5012986508781</v>
+        <v>178.5012986508778</v>
       </c>
       <c r="H19" t="n">
-        <v>102.1727769539485</v>
+        <v>102.1727769539484</v>
       </c>
       <c r="I19" t="n">
-        <v>74.7357648575065</v>
+        <v>74.73576485750647</v>
       </c>
       <c r="J19" t="n">
-        <v>119.8583973044421</v>
+        <v>119.858397304442</v>
       </c>
       <c r="K19" t="n">
-        <v>323.8455802533184</v>
+        <v>323.8455802533183</v>
       </c>
       <c r="L19" t="n">
         <v>640.4053787018145</v>
       </c>
       <c r="M19" t="n">
-        <v>984.5624243013635</v>
+        <v>984.5624243013634</v>
       </c>
       <c r="N19" t="n">
-        <v>1325.970801007228</v>
+        <v>1338.98936883225</v>
       </c>
       <c r="O19" t="n">
-        <v>1625.300399927642</v>
+        <v>1638.318967752663</v>
       </c>
       <c r="P19" t="n">
-        <v>1870.926468186324</v>
+        <v>1870.926468186322</v>
       </c>
       <c r="Q19" t="n">
-        <v>1948.536764338839</v>
+        <v>1948.536764338837</v>
       </c>
       <c r="R19" t="n">
-        <v>1928.59497218158</v>
+        <v>1928.594972181578</v>
       </c>
       <c r="S19" t="n">
-        <v>1806.797753093619</v>
+        <v>1806.797753093617</v>
       </c>
       <c r="T19" t="n">
-        <v>1654.919802748357</v>
+        <v>1654.919802748356</v>
       </c>
       <c r="U19" t="n">
-        <v>1435.705600959214</v>
+        <v>1435.705600959212</v>
       </c>
       <c r="V19" t="n">
-        <v>1250.909777838539</v>
+        <v>1250.909777838538</v>
       </c>
       <c r="W19" t="n">
-        <v>1031.381272886792</v>
+        <v>1031.38127288679</v>
       </c>
       <c r="X19" t="n">
-        <v>873.2803870739867</v>
+        <v>873.2803870739854</v>
       </c>
       <c r="Y19" t="n">
-        <v>722.3764730156693</v>
+        <v>722.376473015668</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1892.062197827481</v>
+        <v>1892.06219782748</v>
       </c>
       <c r="C20" t="n">
-        <v>1592.988345972282</v>
+        <v>1592.988345972281</v>
       </c>
       <c r="D20" t="n">
-        <v>1304.611312450745</v>
+        <v>1304.611312450743</v>
       </c>
       <c r="E20" t="n">
-        <v>988.7117249377131</v>
+        <v>988.711724937712</v>
       </c>
       <c r="F20" t="n">
-        <v>647.6144852333182</v>
+        <v>647.6144852333173</v>
       </c>
       <c r="G20" t="n">
-        <v>302.4307001635267</v>
+        <v>302.4307001635265</v>
       </c>
       <c r="H20" t="n">
-        <v>74.73576485750651</v>
+        <v>74.73576485750645</v>
       </c>
       <c r="I20" t="n">
-        <v>74.73576485750651</v>
+        <v>74.73576485750645</v>
       </c>
       <c r="J20" t="n">
         <v>263.6148958165319</v>
       </c>
       <c r="K20" t="n">
-        <v>597.4342695063784</v>
+        <v>597.4342695063783</v>
       </c>
       <c r="L20" t="n">
         <v>1048.468482754787</v>
@@ -5765,37 +5765,37 @@
         <v>2128.779204485494</v>
       </c>
       <c r="O20" t="n">
-        <v>2631.751675364831</v>
+        <v>2969.651192531407</v>
       </c>
       <c r="P20" t="n">
-        <v>3345.106762811777</v>
+        <v>3364.425558888585</v>
       </c>
       <c r="Q20" t="n">
-        <v>3677.771176318523</v>
+        <v>3612.711920644267</v>
       </c>
       <c r="R20" t="n">
-        <v>3736.788242875326</v>
+        <v>3736.788242875322</v>
       </c>
       <c r="S20" t="n">
-        <v>3696.386239487633</v>
+        <v>3696.38623948763</v>
       </c>
       <c r="T20" t="n">
-        <v>3560.297156957068</v>
+        <v>3560.297156957065</v>
       </c>
       <c r="U20" t="n">
-        <v>3376.655345316116</v>
+        <v>3376.655345316114</v>
       </c>
       <c r="V20" t="n">
-        <v>3115.481123057758</v>
+        <v>3115.481123057756</v>
       </c>
       <c r="W20" t="n">
-        <v>2832.601132872857</v>
+        <v>2832.601132872855</v>
       </c>
       <c r="X20" t="n">
-        <v>2529.024039696989</v>
+        <v>2529.024039696988</v>
       </c>
       <c r="Y20" t="n">
-        <v>2208.77337280639</v>
+        <v>2208.773372806389</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>949.7675029064318</v>
+        <v>949.7675029064317</v>
       </c>
       <c r="C21" t="n">
-        <v>775.3144736253048</v>
+        <v>775.3144736253047</v>
       </c>
       <c r="D21" t="n">
         <v>626.3800639640535</v>
@@ -5817,25 +5817,25 @@
         <v>467.142608958598</v>
       </c>
       <c r="F21" t="n">
-        <v>320.6080509854829</v>
+        <v>320.608050985483</v>
       </c>
       <c r="G21" t="n">
-        <v>184.244950818101</v>
+        <v>184.2449508181016</v>
       </c>
       <c r="H21" t="n">
-        <v>93.74305645596854</v>
+        <v>93.74305645596932</v>
       </c>
       <c r="I21" t="n">
-        <v>74.73576485750651</v>
+        <v>74.73576485750645</v>
       </c>
       <c r="J21" t="n">
-        <v>168.4130343481239</v>
+        <v>168.413034348124</v>
       </c>
       <c r="K21" t="n">
-        <v>406.677233328471</v>
+        <v>406.6772333284711</v>
       </c>
       <c r="L21" t="n">
-        <v>773.3753936411364</v>
+        <v>773.3753936411365</v>
       </c>
       <c r="M21" t="n">
         <v>1220.651718863452</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>610.6166732706422</v>
+        <v>610.6166732706411</v>
       </c>
       <c r="C22" t="n">
-        <v>511.5691554279479</v>
+        <v>511.5691554279469</v>
       </c>
       <c r="D22" t="n">
-        <v>431.3411811008248</v>
+        <v>431.341181100824</v>
       </c>
       <c r="E22" t="n">
-        <v>353.3167526036443</v>
+        <v>353.3167526036436</v>
       </c>
       <c r="F22" t="n">
-        <v>276.3154701909466</v>
+        <v>276.315470190946</v>
       </c>
       <c r="G22" t="n">
-        <v>178.5012986508781</v>
+        <v>178.5012986508777</v>
       </c>
       <c r="H22" t="n">
-        <v>102.1727769539485</v>
+        <v>102.1727769539483</v>
       </c>
       <c r="I22" t="n">
-        <v>74.73576485750651</v>
+        <v>74.73576485750645</v>
       </c>
       <c r="J22" t="n">
-        <v>119.8583973044421</v>
+        <v>119.858397304442</v>
       </c>
       <c r="K22" t="n">
         <v>323.8455802533184</v>
@@ -5917,43 +5917,43 @@
         <v>640.4053787018145</v>
       </c>
       <c r="M22" t="n">
-        <v>984.5624243013635</v>
+        <v>997.5809921263847</v>
       </c>
       <c r="N22" t="n">
-        <v>1325.970801007228</v>
+        <v>1338.989368832249</v>
       </c>
       <c r="O22" t="n">
-        <v>1638.318967752665</v>
+        <v>1638.318967752663</v>
       </c>
       <c r="P22" t="n">
-        <v>1870.926468186324</v>
+        <v>1870.926468186322</v>
       </c>
       <c r="Q22" t="n">
-        <v>1948.536764338839</v>
+        <v>1948.536764338837</v>
       </c>
       <c r="R22" t="n">
-        <v>1928.59497218158</v>
+        <v>1928.594972181578</v>
       </c>
       <c r="S22" t="n">
-        <v>1806.797753093619</v>
+        <v>1806.797753093617</v>
       </c>
       <c r="T22" t="n">
-        <v>1654.919802748357</v>
+        <v>1654.919802748356</v>
       </c>
       <c r="U22" t="n">
-        <v>1435.705600959214</v>
+        <v>1435.705600959212</v>
       </c>
       <c r="V22" t="n">
-        <v>1250.909777838539</v>
+        <v>1250.909777838538</v>
       </c>
       <c r="W22" t="n">
-        <v>1031.381272886792</v>
+        <v>1031.38127288679</v>
       </c>
       <c r="X22" t="n">
-        <v>873.2803870739867</v>
+        <v>873.2803870739854</v>
       </c>
       <c r="Y22" t="n">
-        <v>722.3764730156693</v>
+        <v>722.376473015668</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1892.062197827481</v>
+        <v>1892.06219782748</v>
       </c>
       <c r="C23" t="n">
-        <v>1592.988345972282</v>
+        <v>1592.988345972281</v>
       </c>
       <c r="D23" t="n">
         <v>1304.611312450744</v>
       </c>
       <c r="E23" t="n">
-        <v>988.7117249377127</v>
+        <v>988.711724937712</v>
       </c>
       <c r="F23" t="n">
-        <v>647.6144852333177</v>
+        <v>647.6144852333173</v>
       </c>
       <c r="G23" t="n">
-        <v>302.4307001635267</v>
+        <v>302.4307001635265</v>
       </c>
       <c r="H23" t="n">
-        <v>74.7357648575065</v>
+        <v>74.73576485750645</v>
       </c>
       <c r="I23" t="n">
-        <v>74.7357648575065</v>
+        <v>74.73576485750645</v>
       </c>
       <c r="J23" t="n">
-        <v>431.0205448368849</v>
+        <v>263.6148958165318</v>
       </c>
       <c r="K23" t="n">
-        <v>764.8399185267315</v>
+        <v>597.4342695063782</v>
       </c>
       <c r="L23" t="n">
-        <v>1215.87413177514</v>
+        <v>1048.468482754787</v>
       </c>
       <c r="M23" t="n">
-        <v>1749.406036447065</v>
+        <v>1582.000387426711</v>
       </c>
       <c r="N23" t="n">
-        <v>2296.184853505847</v>
+        <v>2321.546136573017</v>
       </c>
       <c r="O23" t="n">
-        <v>2799.157324385184</v>
+        <v>2824.518607452354</v>
       </c>
       <c r="P23" t="n">
-        <v>3193.931690742362</v>
+        <v>3219.292973809532</v>
       </c>
       <c r="Q23" t="n">
-        <v>3612.711920644269</v>
+        <v>3677.77117631852</v>
       </c>
       <c r="R23" t="n">
-        <v>3736.788242875325</v>
+        <v>3736.788242875322</v>
       </c>
       <c r="S23" t="n">
-        <v>3696.386239487632</v>
+        <v>3696.38623948763</v>
       </c>
       <c r="T23" t="n">
-        <v>3560.297156957067</v>
+        <v>3560.297156957065</v>
       </c>
       <c r="U23" t="n">
-        <v>3376.655345316116</v>
+        <v>3376.655345316114</v>
       </c>
       <c r="V23" t="n">
-        <v>3115.481123057758</v>
+        <v>3115.481123057756</v>
       </c>
       <c r="W23" t="n">
-        <v>2832.601132872856</v>
+        <v>2832.601132872855</v>
       </c>
       <c r="X23" t="n">
-        <v>2529.024039696989</v>
+        <v>2529.024039696988</v>
       </c>
       <c r="Y23" t="n">
-        <v>2208.77337280639</v>
+        <v>2208.773372806389</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>949.7675029064321</v>
+        <v>949.7675029064318</v>
       </c>
       <c r="C24" t="n">
-        <v>775.3144736253051</v>
+        <v>775.3144736253048</v>
       </c>
       <c r="D24" t="n">
-        <v>626.380063964054</v>
+        <v>626.3800639640535</v>
       </c>
       <c r="E24" t="n">
-        <v>467.1426089585984</v>
+        <v>467.142608958598</v>
       </c>
       <c r="F24" t="n">
-        <v>320.6080509854835</v>
+        <v>320.6080509854829</v>
       </c>
       <c r="G24" t="n">
-        <v>184.244950818102</v>
+        <v>184.244950818101</v>
       </c>
       <c r="H24" t="n">
-        <v>93.74305645596891</v>
+        <v>93.74305645596851</v>
       </c>
       <c r="I24" t="n">
-        <v>74.7357648575065</v>
+        <v>74.73576485750645</v>
       </c>
       <c r="J24" t="n">
-        <v>168.4130343481241</v>
+        <v>168.4130343481237</v>
       </c>
       <c r="K24" t="n">
-        <v>406.6772333284715</v>
+        <v>406.6772333284708</v>
       </c>
       <c r="L24" t="n">
-        <v>773.375393641137</v>
+        <v>773.375393641136</v>
       </c>
       <c r="M24" t="n">
         <v>1220.651718863453</v>
@@ -6096,16 +6096,16 @@
         <v>2443.69495104466</v>
       </c>
       <c r="T24" t="n">
-        <v>2251.051950722516</v>
+        <v>2251.051950722515</v>
       </c>
       <c r="U24" t="n">
         <v>2022.984103856931</v>
       </c>
       <c r="V24" t="n">
-        <v>1787.831995625189</v>
+        <v>1787.831995625188</v>
       </c>
       <c r="W24" t="n">
-        <v>1533.594638896987</v>
+        <v>1533.594638896986</v>
       </c>
       <c r="X24" t="n">
         <v>1325.743138691454</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>610.6166732706422</v>
+        <v>610.6166732706411</v>
       </c>
       <c r="C25" t="n">
-        <v>511.5691554279479</v>
+        <v>511.5691554279469</v>
       </c>
       <c r="D25" t="n">
-        <v>431.3411811008248</v>
+        <v>431.341181100824</v>
       </c>
       <c r="E25" t="n">
-        <v>353.3167526036443</v>
+        <v>353.3167526036436</v>
       </c>
       <c r="F25" t="n">
-        <v>276.3154701909465</v>
+        <v>276.315470190946</v>
       </c>
       <c r="G25" t="n">
-        <v>178.5012986508781</v>
+        <v>178.5012986508777</v>
       </c>
       <c r="H25" t="n">
-        <v>102.1727769539485</v>
+        <v>102.1727769539483</v>
       </c>
       <c r="I25" t="n">
-        <v>74.7357648575065</v>
+        <v>74.73576485750645</v>
       </c>
       <c r="J25" t="n">
-        <v>119.8583973044421</v>
+        <v>119.858397304442</v>
       </c>
       <c r="K25" t="n">
-        <v>323.8455802533184</v>
+        <v>323.8455802533183</v>
       </c>
       <c r="L25" t="n">
-        <v>640.4053787018145</v>
+        <v>653.4239465268364</v>
       </c>
       <c r="M25" t="n">
-        <v>997.5809921263867</v>
+        <v>997.5809921263854</v>
       </c>
       <c r="N25" t="n">
-        <v>1338.989368832251</v>
+        <v>1338.98936883225</v>
       </c>
       <c r="O25" t="n">
-        <v>1638.318967752665</v>
+        <v>1638.318967752663</v>
       </c>
       <c r="P25" t="n">
-        <v>1870.926468186324</v>
+        <v>1870.926468186322</v>
       </c>
       <c r="Q25" t="n">
-        <v>1948.536764338839</v>
+        <v>1948.536764338837</v>
       </c>
       <c r="R25" t="n">
-        <v>1928.59497218158</v>
+        <v>1928.594972181578</v>
       </c>
       <c r="S25" t="n">
-        <v>1806.797753093619</v>
+        <v>1806.797753093617</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.919802748357</v>
+        <v>1654.919802748356</v>
       </c>
       <c r="U25" t="n">
-        <v>1435.705600959214</v>
+        <v>1435.705600959212</v>
       </c>
       <c r="V25" t="n">
-        <v>1250.909777838539</v>
+        <v>1250.909777838538</v>
       </c>
       <c r="W25" t="n">
-        <v>1031.381272886792</v>
+        <v>1031.38127288679</v>
       </c>
       <c r="X25" t="n">
-        <v>873.2803870739867</v>
+        <v>873.2803870739854</v>
       </c>
       <c r="Y25" t="n">
-        <v>722.3764730156693</v>
+        <v>722.376473015668</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424367</v>
+        <v>2826.495488321722</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6257,7 +6257,7 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6266,7 +6266,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698009</v>
+        <v>774.1010502698011</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899673</v>
+        <v>652.6145002899676</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257049</v>
+        <v>549.9474938257052</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913851</v>
+        <v>449.4840331913855</v>
       </c>
       <c r="F28" t="n">
-        <v>350.043718641548</v>
+        <v>350.0437186415485</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519673</v>
+        <v>908.2998821519675</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
@@ -6449,61 +6449,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>298.395571783992</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>632.2149454738385</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1496.733761127193</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2030.265665799118</v>
+        <v>1921.876785462655</v>
       </c>
       <c r="N29" t="n">
-        <v>2577.0444828579</v>
+        <v>2468.655602521437</v>
       </c>
       <c r="O29" t="n">
-        <v>3080.016953737237</v>
+        <v>2971.628073400774</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698011</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899676</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257034</v>
+        <v>549.9474938257052</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913836</v>
+        <v>449.4840331913855</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415464</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643386</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302697</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.299882151966</v>
+        <v>908.2998821519675</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>393.2994530991701</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>727.1188267890166</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1178.153040037425</v>
+        <v>1635.769886219269</v>
       </c>
       <c r="M32" t="n">
-        <v>1711.68494470935</v>
+        <v>2169.301790891193</v>
       </c>
       <c r="N32" t="n">
-        <v>2258.463761768132</v>
+        <v>2716.080607949975</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.436232647469</v>
+        <v>3219.053078829312</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,31 +6877,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519665</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1875.898051877914</v>
+        <v>1875.898051877915</v>
       </c>
       <c r="C35" t="n">
-        <v>1579.39576869651</v>
+        <v>1579.395768696511</v>
       </c>
       <c r="D35" t="n">
         <v>1293.590303848767</v>
       </c>
       <c r="E35" t="n">
-        <v>980.2622850095299</v>
+        <v>980.2622850095304</v>
       </c>
       <c r="F35" t="n">
-        <v>641.7366139789297</v>
+        <v>641.7366139789301</v>
       </c>
       <c r="G35" t="n">
         <v>299.1243975829336</v>
       </c>
       <c r="H35" t="n">
-        <v>74.00103095070801</v>
+        <v>74.00103095070804</v>
       </c>
       <c r="I35" t="n">
-        <v>74.00103095070801</v>
+        <v>74.00103095070804</v>
       </c>
       <c r="J35" t="n">
-        <v>308.9330148719856</v>
+        <v>262.8801619097334</v>
       </c>
       <c r="K35" t="n">
-        <v>963.6563470072851</v>
+        <v>596.6995355995798</v>
       </c>
       <c r="L35" t="n">
-        <v>1414.690560255694</v>
+        <v>1047.733748847988</v>
       </c>
       <c r="M35" t="n">
-        <v>1948.222464927619</v>
+        <v>1581.265653519913</v>
       </c>
       <c r="N35" t="n">
-        <v>2495.001281986401</v>
+        <v>2128.044470578695</v>
       </c>
       <c r="O35" t="n">
-        <v>2997.973752865738</v>
+        <v>2997.97375286574</v>
       </c>
       <c r="P35" t="n">
-        <v>3392.748119222916</v>
+        <v>3392.748119222917</v>
       </c>
       <c r="Q35" t="n">
-        <v>3641.034480978598</v>
+        <v>3641.0344809786</v>
       </c>
       <c r="R35" t="n">
-        <v>3700.051547535401</v>
+        <v>3700.051547535402</v>
       </c>
       <c r="S35" t="n">
         <v>3662.221112821504</v>
       </c>
       <c r="T35" t="n">
-        <v>3528.703598964733</v>
+        <v>3528.703598964734</v>
       </c>
       <c r="U35" t="n">
-        <v>3347.633355997576</v>
+        <v>3347.633355997577</v>
       </c>
       <c r="V35" t="n">
-        <v>3089.030702413013</v>
+        <v>3089.030702413014</v>
       </c>
       <c r="W35" t="n">
-        <v>2808.722280901906</v>
+        <v>2808.722280901907</v>
       </c>
       <c r="X35" t="n">
-        <v>2507.716756399833</v>
+        <v>2507.716756399834</v>
       </c>
       <c r="Y35" t="n">
-        <v>2190.037658183029</v>
+        <v>2190.03765818303</v>
       </c>
     </row>
     <row r="36">
@@ -6999,37 +6999,37 @@
         <v>625.645330057255</v>
       </c>
       <c r="E36" t="n">
-        <v>466.4078750517995</v>
+        <v>466.4078750517996</v>
       </c>
       <c r="F36" t="n">
-        <v>319.8733170786844</v>
+        <v>319.8733170786845</v>
       </c>
       <c r="G36" t="n">
-        <v>183.5102169113025</v>
+        <v>183.5102169113026</v>
       </c>
       <c r="H36" t="n">
-        <v>93.00832254917006</v>
+        <v>93.00832254917012</v>
       </c>
       <c r="I36" t="n">
-        <v>74.00103095070801</v>
+        <v>74.00103095070804</v>
       </c>
       <c r="J36" t="n">
         <v>167.6783004413253</v>
       </c>
       <c r="K36" t="n">
-        <v>405.9424994216725</v>
+        <v>405.9424994216734</v>
       </c>
       <c r="L36" t="n">
-        <v>772.6406597343379</v>
+        <v>772.6406597343387</v>
       </c>
       <c r="M36" t="n">
         <v>1219.916984956654</v>
       </c>
       <c r="N36" t="n">
-        <v>1693.440028511108</v>
+        <v>1693.440028511109</v>
       </c>
       <c r="O36" t="n">
-        <v>2104.401307929163</v>
+        <v>2104.401307929164</v>
       </c>
       <c r="P36" t="n">
         <v>2414.900899405266</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>591.8809586472814</v>
+        <v>591.8809586472815</v>
       </c>
       <c r="C37" t="n">
-        <v>495.4050094783817</v>
+        <v>495.4050094783819</v>
       </c>
       <c r="D37" t="n">
-        <v>417.7486038250532</v>
+        <v>417.7486038250534</v>
       </c>
       <c r="E37" t="n">
-        <v>342.2957440016673</v>
+        <v>342.2957440016675</v>
       </c>
       <c r="F37" t="n">
-        <v>267.8660302627642</v>
+        <v>267.8660302627643</v>
       </c>
       <c r="G37" t="n">
-        <v>172.6234273964904</v>
+        <v>172.6234273964905</v>
       </c>
       <c r="H37" t="n">
-        <v>98.86647437335543</v>
+        <v>98.86647437335549</v>
       </c>
       <c r="I37" t="n">
-        <v>74.00103095070801</v>
+        <v>74.00103095070804</v>
       </c>
       <c r="J37" t="n">
         <v>119.1236633976436</v>
       </c>
       <c r="K37" t="n">
-        <v>323.11084634652</v>
+        <v>323.1108463465199</v>
       </c>
       <c r="L37" t="n">
-        <v>639.6706447950161</v>
+        <v>639.670644795016</v>
       </c>
       <c r="M37" t="n">
-        <v>983.827690394565</v>
+        <v>983.8276903945649</v>
       </c>
       <c r="N37" t="n">
         <v>1325.23606710043</v>
@@ -7111,34 +7111,34 @@
         <v>1624.565666020843</v>
       </c>
       <c r="P37" t="n">
-        <v>1857.173166454503</v>
+        <v>1857.173166454502</v>
       </c>
       <c r="Q37" t="n">
         <v>1934.783462607017</v>
       </c>
       <c r="R37" t="n">
-        <v>1917.413239123553</v>
+        <v>1917.413239123552</v>
       </c>
       <c r="S37" t="n">
-        <v>1798.187588709386</v>
+        <v>1798.187588709385</v>
       </c>
       <c r="T37" t="n">
         <v>1648.881207037919</v>
       </c>
       <c r="U37" t="n">
-        <v>1432.23857392257</v>
+        <v>1432.238573922569</v>
       </c>
       <c r="V37" t="n">
-        <v>1221.88778852</v>
+        <v>1250.014319475689</v>
       </c>
       <c r="W37" t="n">
-        <v>1004.930852242047</v>
+        <v>1033.057383197736</v>
       </c>
       <c r="X37" t="n">
-        <v>849.4015351030368</v>
+        <v>877.5280660587259</v>
       </c>
       <c r="Y37" t="n">
-        <v>701.0691897185139</v>
+        <v>701.0691897185141</v>
       </c>
     </row>
     <row r="38">
@@ -7151,73 +7151,73 @@
         <v>1875.898051877915</v>
       </c>
       <c r="C38" t="n">
-        <v>1579.39576869651</v>
+        <v>1579.395768696511</v>
       </c>
       <c r="D38" t="n">
-        <v>1293.590303848767</v>
+        <v>1293.590303848768</v>
       </c>
       <c r="E38" t="n">
-        <v>980.2622850095299</v>
+        <v>980.2622850095308</v>
       </c>
       <c r="F38" t="n">
-        <v>641.7366139789297</v>
+        <v>641.7366139789306</v>
       </c>
       <c r="G38" t="n">
         <v>299.1243975829336</v>
       </c>
       <c r="H38" t="n">
-        <v>74.00103095070801</v>
+        <v>74.00103095070806</v>
       </c>
       <c r="I38" t="n">
-        <v>74.00103095070801</v>
+        <v>74.00103095070806</v>
       </c>
       <c r="J38" t="n">
-        <v>430.2858109300865</v>
+        <v>262.8801619097334</v>
       </c>
       <c r="K38" t="n">
-        <v>764.105184619933</v>
+        <v>596.6995355995798</v>
       </c>
       <c r="L38" t="n">
-        <v>1215.139397868342</v>
+        <v>1047.733748847988</v>
       </c>
       <c r="M38" t="n">
-        <v>1748.671302540266</v>
+        <v>1948.222464927621</v>
       </c>
       <c r="N38" t="n">
-        <v>2295.450119599049</v>
+        <v>2495.001281986403</v>
       </c>
       <c r="O38" t="n">
-        <v>2798.422590478386</v>
+        <v>2997.97375286574</v>
       </c>
       <c r="P38" t="n">
-        <v>3193.196956835564</v>
+        <v>3392.748119222918</v>
       </c>
       <c r="Q38" t="n">
-        <v>3575.975225304346</v>
+        <v>3641.0344809786</v>
       </c>
       <c r="R38" t="n">
-        <v>3700.051547535401</v>
+        <v>3700.051547535403</v>
       </c>
       <c r="S38" t="n">
-        <v>3662.221112821504</v>
+        <v>3662.221112821505</v>
       </c>
       <c r="T38" t="n">
-        <v>3528.703598964733</v>
+        <v>3528.703598964734</v>
       </c>
       <c r="U38" t="n">
-        <v>3347.633355997576</v>
+        <v>3347.633355997577</v>
       </c>
       <c r="V38" t="n">
-        <v>3089.030702413013</v>
+        <v>3089.030702413014</v>
       </c>
       <c r="W38" t="n">
-        <v>2808.722280901906</v>
+        <v>2808.722280901907</v>
       </c>
       <c r="X38" t="n">
         <v>2507.716756399834</v>
       </c>
       <c r="Y38" t="n">
-        <v>2190.037658183029</v>
+        <v>2190.03765818303</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>949.0327689996333</v>
+        <v>949.0327689996327</v>
       </c>
       <c r="C39" t="n">
-        <v>774.5797397185063</v>
+        <v>774.5797397185057</v>
       </c>
       <c r="D39" t="n">
-        <v>625.645330057255</v>
+        <v>625.6453300572545</v>
       </c>
       <c r="E39" t="n">
-        <v>466.4078750517995</v>
+        <v>466.407875051799</v>
       </c>
       <c r="F39" t="n">
-        <v>319.8733170786844</v>
+        <v>319.873317078684</v>
       </c>
       <c r="G39" t="n">
-        <v>183.5102169113025</v>
+        <v>183.5102169113021</v>
       </c>
       <c r="H39" t="n">
-        <v>93.00832254917006</v>
+        <v>93.00832254916956</v>
       </c>
       <c r="I39" t="n">
-        <v>74.00103095070801</v>
+        <v>74.00103095070806</v>
       </c>
       <c r="J39" t="n">
         <v>167.6783004413253</v>
       </c>
       <c r="K39" t="n">
-        <v>405.9424994216725</v>
+        <v>405.9424994216724</v>
       </c>
       <c r="L39" t="n">
-        <v>772.6406597343379</v>
+        <v>772.6406597343378</v>
       </c>
       <c r="M39" t="n">
         <v>1219.916984956654</v>
@@ -7272,7 +7272,7 @@
         <v>2414.900899405266</v>
       </c>
       <c r="Q39" t="n">
-        <v>2572.542457051866</v>
+        <v>2572.542457051865</v>
       </c>
       <c r="R39" t="n">
         <v>2572.398103644381</v>
@@ -7281,16 +7281,16 @@
         <v>2442.960217137861</v>
       </c>
       <c r="T39" t="n">
-        <v>2250.317216815717</v>
+        <v>2250.317216815716</v>
       </c>
       <c r="U39" t="n">
         <v>2022.249369950132</v>
       </c>
       <c r="V39" t="n">
-        <v>1787.09726171839</v>
+        <v>1787.097261718389</v>
       </c>
       <c r="W39" t="n">
-        <v>1532.859904990188</v>
+        <v>1532.859904990187</v>
       </c>
       <c r="X39" t="n">
         <v>1325.008404784655</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>591.8809586472814</v>
+        <v>591.8809586472815</v>
       </c>
       <c r="C40" t="n">
-        <v>495.4050094783817</v>
+        <v>495.4050094783819</v>
       </c>
       <c r="D40" t="n">
-        <v>417.7486038250532</v>
+        <v>417.7486038250534</v>
       </c>
       <c r="E40" t="n">
-        <v>342.2957440016673</v>
+        <v>342.2957440016675</v>
       </c>
       <c r="F40" t="n">
-        <v>267.8660302627642</v>
+        <v>267.8660302627644</v>
       </c>
       <c r="G40" t="n">
-        <v>172.6234273964904</v>
+        <v>172.6234273964905</v>
       </c>
       <c r="H40" t="n">
-        <v>98.86647437335543</v>
+        <v>98.8664743733555</v>
       </c>
       <c r="I40" t="n">
-        <v>74.00103095070801</v>
+        <v>74.00103095070806</v>
       </c>
       <c r="J40" t="n">
         <v>119.1236633976436</v>
       </c>
       <c r="K40" t="n">
-        <v>323.11084634652</v>
+        <v>323.1108463465199</v>
       </c>
       <c r="L40" t="n">
-        <v>639.6706447950161</v>
+        <v>639.670644795016</v>
       </c>
       <c r="M40" t="n">
-        <v>983.827690394565</v>
+        <v>983.8276903945649</v>
       </c>
       <c r="N40" t="n">
         <v>1325.23606710043</v>
@@ -7348,22 +7348,22 @@
         <v>1624.565666020843</v>
       </c>
       <c r="P40" t="n">
-        <v>1857.173166454503</v>
+        <v>1857.173166454502</v>
       </c>
       <c r="Q40" t="n">
         <v>1934.783462607017</v>
       </c>
       <c r="R40" t="n">
-        <v>1917.413239123553</v>
+        <v>1917.413239123552</v>
       </c>
       <c r="S40" t="n">
-        <v>1798.187588709386</v>
+        <v>1798.187588709385</v>
       </c>
       <c r="T40" t="n">
         <v>1648.881207037919</v>
       </c>
       <c r="U40" t="n">
-        <v>1432.23857392257</v>
+        <v>1432.238573922569</v>
       </c>
       <c r="V40" t="n">
         <v>1221.88778852</v>
@@ -7372,10 +7372,10 @@
         <v>1004.930852242047</v>
       </c>
       <c r="X40" t="n">
-        <v>849.4015351030368</v>
+        <v>849.401535103037</v>
       </c>
       <c r="Y40" t="n">
-        <v>701.0691897185139</v>
+        <v>701.0691897185141</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1728.817513434839</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C41" t="n">
-        <v>1407.304629442501</v>
+        <v>979.854635471874</v>
       </c>
       <c r="D41" t="n">
-        <v>1096.488563783824</v>
+        <v>669.0385698131968</v>
       </c>
       <c r="E41" t="n">
-        <v>1047.805172923807</v>
+        <v>669.0385698131968</v>
       </c>
       <c r="F41" t="n">
-        <v>684.2689010822731</v>
+        <v>669.0385698131968</v>
       </c>
       <c r="G41" t="n">
-        <v>316.6460838753429</v>
+        <v>301.4157526062666</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,7 +7409,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
@@ -7418,7 +7418,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7427,7 +7427,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7436,25 +7436,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V41" t="n">
-        <v>3041.992567213674</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W41" t="n">
-        <v>2736.673544891633</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X41" t="n">
-        <v>2410.657419578626</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y41" t="n">
-        <v>2067.967720550888</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="42">
@@ -7479,10 +7479,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7491,16 +7491,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C43" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254612</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611989</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268788</v>
+        <v>434.8492327268791</v>
       </c>
       <c r="F43" t="n">
-        <v>335.4089181770418</v>
+        <v>335.4089181770421</v>
       </c>
       <c r="G43" t="n">
-        <v>215.155714499834</v>
+        <v>215.1557144998344</v>
       </c>
       <c r="H43" t="n">
         <v>116.3881606657651</v>
@@ -7570,10 +7570,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M43" t="n">
         <v>1162.360316885667</v>
@@ -7585,7 +7585,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P43" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q43" t="n">
         <v>2299.337630107746</v>
@@ -7612,7 +7612,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2012.430767830337</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C44" t="n">
-        <v>1690.917883837998</v>
+        <v>979.854635471874</v>
       </c>
       <c r="D44" t="n">
-        <v>1380.101818179321</v>
+        <v>669.0385698131968</v>
       </c>
       <c r="E44" t="n">
-        <v>1041.76319852915</v>
+        <v>669.0385698131968</v>
       </c>
       <c r="F44" t="n">
-        <v>678.2269266876158</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G44" t="n">
-        <v>310.6041094806856</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,19 +7646,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7673,25 +7673,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W44" t="n">
-        <v>3020.28679928713</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X44" t="n">
-        <v>2694.270673974123</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y44" t="n">
-        <v>2351.580974946385</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7728,10 +7728,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,34 +7743,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.4662498052949</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9796998254612</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D46" t="n">
         <v>535.3126933611983</v>
@@ -7807,10 +7807,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K46" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L46" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M46" t="n">
         <v>1162.360316885667</v>
@@ -7849,7 +7849,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>36.36561760921458</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>36.36561760921586</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>36.36561760921518</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>36.36561760921722</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9179,10 +9179,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>128.9976529426989</v>
       </c>
       <c r="Q17" t="n">
-        <v>17.16723103143917</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>341.3126436026016</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>85.23035530410462</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>194.7140728156809</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>172.2160284305302</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>190.2350110279893</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544144</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>28.6560847760378</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>167.7369666428366</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5185911550055</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>137.5908801368508</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>46.51803329520422</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>370.6634458663717</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>370.6634458663722</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.8504108213126</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>5.542233338928781e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>115.8739679863091</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.07419322325299049</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>62.71301191079084</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348608</v>
+        <v>314.3913195912639</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>9.023892744153272e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25634,16 +25634,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>286.7586765022529</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>15.07802795638551</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25871,16 +25871,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>127.3463093107766</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.981554650710763</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>586443.0660488385</v>
+        <v>586443.0660488384</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>586443.0660488388</v>
+        <v>586443.0660488384</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>638500.2362194724</v>
+        <v>638500.2362194723</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>638500.2362194724</v>
+        <v>638500.2362194723</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637342.3549547949</v>
+        <v>637342.354954795</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637342.3549547949</v>
+        <v>637342.354954795</v>
       </c>
     </row>
     <row r="15">
@@ -26314,37 +26314,37 @@
         <v>819276.3387170383</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.3387170385</v>
       </c>
       <c r="D2" t="n">
-        <v>819276.3387170385</v>
+        <v>819276.3387170384</v>
       </c>
       <c r="E2" t="n">
-        <v>767368.1084586184</v>
+        <v>767368.1084586182</v>
       </c>
       <c r="F2" t="n">
-        <v>767368.1084586185</v>
+        <v>767368.1084586183</v>
       </c>
       <c r="G2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="H2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.7698642827</v>
       </c>
       <c r="I2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.769864283</v>
       </c>
       <c r="J2" t="n">
-        <v>821041.7698642819</v>
+        <v>821041.7698642822</v>
       </c>
       <c r="K2" t="n">
-        <v>821041.7698642819</v>
+        <v>821041.7698642821</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.769864283</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="N2" t="n">
         <v>821041.7698642832</v>
@@ -26353,7 +26353,7 @@
         <v>764531.0098898426</v>
       </c>
       <c r="P2" t="n">
-        <v>764531.0098898413</v>
+        <v>764531.0098898427</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>1164090.355888038</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>43429.20265023703</v>
+        <v>43429.2026502373</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40776.3891440086</v>
+        <v>40776.38914400867</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>17771.71345261435</v>
+        <v>17771.71345261441</v>
       </c>
       <c r="M3" t="n">
         <v>207025.9049746766</v>
@@ -26424,40 +26424,40 @@
         <v>430898.5094426759</v>
       </c>
       <c r="E4" t="n">
-        <v>58767.83676800619</v>
+        <v>58767.83676800616</v>
       </c>
       <c r="F4" t="n">
-        <v>58767.83676800627</v>
+        <v>58767.83676800618</v>
       </c>
       <c r="G4" t="n">
-        <v>84632.01250899328</v>
+        <v>84632.01250899339</v>
       </c>
       <c r="H4" t="n">
-        <v>84632.01250899328</v>
+        <v>84632.0125089933</v>
       </c>
       <c r="I4" t="n">
-        <v>84632.01250899327</v>
+        <v>84632.01250899336</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646595</v>
+        <v>80755.36360646607</v>
       </c>
       <c r="K4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646604</v>
       </c>
       <c r="L4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646597</v>
       </c>
       <c r="M4" t="n">
-        <v>85085.05355325798</v>
+        <v>85085.05355325807</v>
       </c>
       <c r="N4" t="n">
-        <v>85085.05355325797</v>
+        <v>85085.05355325808</v>
       </c>
       <c r="O4" t="n">
-        <v>57605.61344858622</v>
+        <v>57605.61344858628</v>
       </c>
       <c r="P4" t="n">
-        <v>57605.61344858622</v>
+        <v>57605.61344858624</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>78813.89109094857</v>
+        <v>78813.89109094853</v>
       </c>
       <c r="F5" t="n">
-        <v>78813.8910909486</v>
+        <v>78813.89109094854</v>
       </c>
       <c r="G5" t="n">
-        <v>86373.02884783709</v>
+        <v>86373.02884783708</v>
       </c>
       <c r="H5" t="n">
-        <v>86373.02884783709</v>
+        <v>86373.02884783706</v>
       </c>
       <c r="I5" t="n">
-        <v>86373.02884783709</v>
+        <v>86373.02884783706</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>86028.65839343911</v>
+        <v>86028.65839343914</v>
       </c>
       <c r="N5" t="n">
-        <v>86028.65839343911</v>
+        <v>86028.65839343914</v>
       </c>
       <c r="O5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="P5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354750.2292743624</v>
+        <v>354745.8156964943</v>
       </c>
       <c r="C6" t="n">
-        <v>354750.2292743624</v>
+        <v>354745.8156964945</v>
       </c>
       <c r="D6" t="n">
-        <v>354750.2292743627</v>
+        <v>354745.8156964944</v>
       </c>
       <c r="E6" t="n">
-        <v>-534303.9752883746</v>
+        <v>-534438.1594418887</v>
       </c>
       <c r="F6" t="n">
-        <v>629786.3805996636</v>
+        <v>629652.1964461494</v>
       </c>
       <c r="G6" t="n">
-        <v>606607.5258572155</v>
+        <v>606607.5258572154</v>
       </c>
       <c r="H6" t="n">
         <v>650036.7285074524</v>
       </c>
       <c r="I6" t="n">
-        <v>650036.7285074524</v>
+        <v>650036.7285074526</v>
       </c>
       <c r="J6" t="n">
-        <v>610132.0754390012</v>
+        <v>610132.0754390014</v>
       </c>
       <c r="K6" t="n">
-        <v>650908.4645830097</v>
+        <v>650908.4645830101</v>
       </c>
       <c r="L6" t="n">
-        <v>633136.7511303965</v>
+        <v>633136.7511303966</v>
       </c>
       <c r="M6" t="n">
-        <v>442902.1529429095</v>
+        <v>442902.1529429096</v>
       </c>
       <c r="N6" t="n">
-        <v>649928.0579175861</v>
+        <v>649928.0579175859</v>
       </c>
       <c r="O6" t="n">
-        <v>628669.9031194746</v>
+        <v>628528.6262195384</v>
       </c>
       <c r="P6" t="n">
-        <v>628669.9031194734</v>
+        <v>628528.6262195386</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="G2" t="n">
+        <v>69.18977843436065</v>
+      </c>
+      <c r="H2" t="n">
+        <v>69.18977843436065</v>
+      </c>
+      <c r="I2" t="n">
+        <v>69.18977843436065</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.97513661859264</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859265</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="M2" t="n">
+        <v>71.73563142141714</v>
+      </c>
+      <c r="N2" t="n">
+        <v>71.73563142141714</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859259</v>
-      </c>
-      <c r="G2" t="n">
-        <v>69.18977843436049</v>
-      </c>
-      <c r="H2" t="n">
-        <v>69.18977843436049</v>
-      </c>
-      <c r="I2" t="n">
-        <v>69.18977843436049</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859251</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>71.73563142141715</v>
-      </c>
-      <c r="N2" t="n">
-        <v>71.73563142141715</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859256</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>840.5856292372732</v>
+        <v>840.5856292372727</v>
       </c>
       <c r="F4" t="n">
-        <v>840.5856292372736</v>
+        <v>840.5856292372728</v>
       </c>
       <c r="G4" t="n">
-        <v>934.1970607188312</v>
+        <v>934.1970607188308</v>
       </c>
       <c r="H4" t="n">
-        <v>934.1970607188314</v>
+        <v>934.1970607188306</v>
       </c>
       <c r="I4" t="n">
-        <v>934.1970607188312</v>
+        <v>934.1970607188306</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>925.0128868838502</v>
+        <v>925.0128868838506</v>
       </c>
       <c r="N4" t="n">
-        <v>925.0128868838502</v>
+        <v>925.0128868838507</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.2146418157679</v>
+        <v>22.21464181576808</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.76049480282461</v>
+        <v>24.76049480282455</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21464181576794</v>
+        <v>22.21464181576801</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7604948028246</v>
+        <v>24.76049480282456</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>840.5856292372732</v>
+        <v>840.5856292372727</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>93.61143148155756</v>
+        <v>93.61143148155801</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>80.1394004897835</v>
+        <v>80.13940048978395</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>22.2146418157679</v>
+        <v>22.21464181576808</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.76049480282461</v>
+        <v>24.76049480282455</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>840.5856292372732</v>
+        <v>840.5856292372727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>93.61143148155756</v>
+        <v>93.61143148155801</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.9751366185917</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="C17" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="D17" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="E17" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="F17" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="G17" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="H17" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="T17" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="U17" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="V17" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="W17" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="X17" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="Y17" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="C19" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="D19" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="E19" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="F19" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="G19" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="H19" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="I19" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28755,40 +28755,40 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>13.15006851012311</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>13.15006851012453</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="S19" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="T19" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="U19" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="V19" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="W19" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="X19" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="C20" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="D20" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="E20" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="F20" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="G20" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="H20" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="T20" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="U20" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="V20" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="W20" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="X20" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="Y20" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="C22" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="D22" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="E22" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="F22" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="G22" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="H22" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="I22" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28989,13 +28989,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>13.15006851012242</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>13.15006851012447</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="S22" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="T22" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="U22" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="V22" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="W22" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="X22" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="C23" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="D23" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="E23" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="F23" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="G23" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="H23" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="T23" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="U23" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="V23" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="W23" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="X23" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="Y23" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="C25" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="D25" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="E25" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="F25" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="G25" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="H25" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="I25" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29223,10 +29223,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>13.15006851012322</v>
       </c>
       <c r="M25" t="n">
-        <v>13.15006851012453</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="S25" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="T25" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="U25" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="V25" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="W25" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="X25" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.18977843436049</v>
+        <v>69.18977843436065</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="C35" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="D35" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="E35" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="F35" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="G35" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="H35" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="T35" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="U35" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="V35" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="W35" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="X35" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="Y35" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="C37" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="D37" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="E37" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="F37" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="G37" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="H37" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="I37" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="S37" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="T37" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="U37" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="V37" t="n">
-        <v>43.89036577528375</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="W37" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="X37" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.73563142141715</v>
+        <v>43.89036577528503</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="C38" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="D38" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="E38" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="F38" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="G38" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="H38" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="T38" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="U38" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="V38" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="W38" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="X38" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="Y38" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="C40" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="D40" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="E40" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="F40" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="G40" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="H40" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="I40" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="S40" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="T40" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="U40" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="V40" t="n">
-        <v>43.89036577528375</v>
+        <v>43.89036577528489</v>
       </c>
       <c r="W40" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="X40" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
       <c r="Y40" t="n">
-        <v>71.73563142141715</v>
+        <v>71.73563142141714</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353153</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026446</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233483</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353167</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>227.1526185779271</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>435.1276038285877</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597676</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35583,7 +35583,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>575.2867334394417</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>435.1276038285891</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609564</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861318</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>527.7596391620706</v>
       </c>
       <c r="Q17" t="n">
-        <v>267.9615358351587</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597791</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36051,16 +36051,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>358.0070146776632</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>248.107139655235</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,16 +36133,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>849.3656444908207</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>336.0246601078241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,13 +36285,13 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>360.7834479036063</v>
       </c>
       <c r="N22" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>315.5031987327642</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>747.0159082285921</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>423.0103332342497</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.79426790133</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>332.9074406803213</v>
       </c>
       <c r="M25" t="n">
-        <v>360.7834479036084</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>698.2880119162083</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737863</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597774</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36771,7 +36771,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.4430857447504</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>706.6580824730631</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359772</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>315.3055921237181</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>536.3528663562224</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,16 +37233,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>237.3050342639168</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>878.7164467545907</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609577</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>909.5845616965987</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>386.6447156250321</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
